--- a/eg2_time.xlsx
+++ b/eg2_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E88A0CD-047E-064A-82AC-851EE07A67EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E9C34A-964A-CD4F-95B5-454DEFE5A42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>num_layers</t>
   </si>
@@ -69,21 +69,9 @@
     <t>seed</t>
   </si>
   <si>
-    <t>dreal_positive</t>
-  </si>
-  <si>
-    <t>dreal_stability</t>
-  </si>
-  <si>
     <t>dreal_inclusion</t>
   </si>
   <si>
-    <t>dreal_positive_suc</t>
-  </si>
-  <si>
-    <t>dreal_stability_suc</t>
-  </si>
-  <si>
     <t>dreal_inclusion_suc</t>
   </si>
   <si>
@@ -103,30 +91,6 @@
   </si>
   <si>
     <t>gpu_inclusion</t>
-  </si>
-  <si>
-    <t>cpu_positive_suc</t>
-  </si>
-  <si>
-    <t>cpu_positive</t>
-  </si>
-  <si>
-    <t>gpu_positive_suc</t>
-  </si>
-  <si>
-    <t>gpu_positive</t>
-  </si>
-  <si>
-    <t>cpu_stability_suc</t>
-  </si>
-  <si>
-    <t>cpu_stability</t>
-  </si>
-  <si>
-    <t>gpu_stability_suc</t>
-  </si>
-  <si>
-    <t>gpu_stability</t>
   </si>
   <si>
     <t>cpu_positive_std</t>
@@ -537,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817EBE87-2CE1-004C-9478-04FC4CE6C5FA}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P14"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,40 +532,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -1185,40 +1149,40 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>2</v>
@@ -1227,22 +1191,22 @@
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
